--- a/Deliverables/SpecificationsOutputs.xlsx
+++ b/Deliverables/SpecificationsOutputs.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959E0AF-EA95-4444-BCEA-F3D3D798DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE581E-D4AA-4FBC-8AC9-A29D68846280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Description</t>
   </si>
@@ -54,18 +65,9 @@
     <t>dropped capital letter</t>
   </si>
   <si>
-    <t>banner</t>
-  </si>
-  <si>
     <t>legend</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
     <t>related components (CC)</t>
   </si>
   <si>
@@ -99,12 +101,6 @@
     <t>line</t>
   </si>
   <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
     <t>Text &amp; Figure</t>
   </si>
   <si>
@@ -152,24 +148,12 @@
     <t>image</t>
   </si>
   <si>
-    <t>adjacent cells of text</t>
-  </si>
-  <si>
-    <t>table?</t>
-  </si>
-  <si>
-    <t>noise?</t>
-  </si>
-  <si>
     <t>annotation</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
     <t>line of text</t>
   </si>
   <si>
@@ -188,9 +172,6 @@
     <t>textual content block at the bottom of the page</t>
   </si>
   <si>
-    <t>content block</t>
-  </si>
-  <si>
     <t>text above or under a image or a table</t>
   </si>
   <si>
@@ -203,9 +184,6 @@
     <t>image of any photograph or not-textual writing/drawing</t>
   </si>
   <si>
-    <t>table organised in cells containing text or numbers</t>
-  </si>
-  <si>
     <t>Anywhere</t>
   </si>
   <si>
@@ -415,8 +393,86 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Arbitrarily positioned in doc in </t>
+    <t>Use case 2</t>
+  </si>
+  <si>
+    <t>Use case 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anywhere in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>word</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Group of adjacent pixels </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At the bottom of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
     </r>
     <r>
       <rPr>
@@ -431,25 +487,40 @@
     </r>
   </si>
   <si>
-    <t>Use case 2</t>
-  </si>
-  <si>
-    <t>Use case 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anywhere in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
+    <r>
+      <t xml:space="preserve">Above </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in another </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
     </r>
   </si>
   <si>
@@ -465,12 +536,94 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>footnote</t>
+    </r>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropped capital letter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group of </t>
     </r>
     <r>
       <rPr>
@@ -483,99 +636,6 @@
       </rPr>
       <t>word</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Group of adjacent pixels </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">At the bottom of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Above </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in another </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -595,173 +655,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>footnote</t>
-    </r>
-  </si>
-  <si>
-    <t>Image?</t>
-  </si>
-  <si>
-    <t>Initial content where everything is</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>character</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dropped capital letter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>word</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>annotation</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-  </si>
-  <si>
-    <t>Group of any smaller content</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> separated by geometrical lines</t>
-    </r>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
-    <t>… to discuss</t>
+    <t>character most important for retro</t>
+  </si>
+  <si>
+    <t>word (mandatory anyway)</t>
+  </si>
+  <si>
+    <t>banner  (not for retro)</t>
+  </si>
+  <si>
+    <t>Image (No pictures but drawings/prints/engravings)</t>
+  </si>
+  <si>
+    <t>noise as characters if not sure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,13 +711,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -904,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -936,65 +879,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,28 +1225,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="15" customWidth="1"/>
-    <col min="6" max="7" width="26.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="22.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="26.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>7</v>
@@ -1306,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="25" t="s">
@@ -1327,443 +1276,358 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="E2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="H2" s="24"/>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>68</v>
+      <c r="A3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>24</v>
+      <c r="A4" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="6" t="s">
-        <v>75</v>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
+      <c r="A5" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="14"/>
+      <c r="A7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
+      <c r="A8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
+      <c r="H8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>4</v>
+      <c r="A9" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>37</v>
+      <c r="A10" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="18" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>10</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
+      <c r="A13" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>9</v>
+      <c r="A14" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>77</v>
-      </c>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D3:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/SpecificationsOutputs.xlsx
+++ b/Deliverables/SpecificationsOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boiss\Desktop\Cours\PR&amp;D Deep Agora\Deep-Agora_DOC\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE581E-D4AA-4FBC-8AC9-A29D68846280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962D6E3-8A28-4F31-A18E-3D511219B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOC" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Needs</t>
-  </si>
-  <si>
     <t>Format</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -393,12 +384,6 @@
     </r>
   </si>
   <si>
-    <t>Use case 2</t>
-  </si>
-  <si>
-    <t>Use case 1</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Anywhere in </t>
     </r>
@@ -675,6 +660,93 @@
   </si>
   <si>
     <t>noise as characters if not sure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Théo Boisseau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creation date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 06.10.2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Version:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary table of the different EOCs that may be searched for</t>
+  </si>
+  <si>
+    <t>For RETRO</t>
+  </si>
+  <si>
+    <t>By scenarios</t>
+  </si>
+  <si>
+    <t>Extractors</t>
+  </si>
+  <si>
+    <t>Use cases:</t>
+  </si>
+  <si>
+    <t>Only for storage</t>
   </si>
 </sst>
 </file>
@@ -712,14 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -728,8 +792,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +809,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -752,15 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -792,7 +866,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -809,7 +885,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -825,125 +903,165 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,409 +1343,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="12" customWidth="1"/>
-    <col min="6" max="7" width="26.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="12"/>
+    <col min="6" max="6" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="15" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="30"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D3:D11"/>
+  <mergeCells count="8">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
